--- a/Tração/Tração_02_A.xlsx
+++ b/Tração/Tração_02_A.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plda\Desktop\Resultados 2019_TraçãoPol Alunos_Comp\2-PEAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgia\Documents\Projetos\AnalysingPolymers\Tração\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6137F1-C009-4B19-9BB6-C5431B0D91CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FBDFE9-2F29-4F6B-AB84-91A90F40DB09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tração_02_A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Position (mm)</t>
   </si>
@@ -34,20 +42,17 @@
     <t>Time (min)</t>
   </si>
   <si>
-    <t>e (mm)</t>
+    <t>L0 (mm)</t>
   </si>
   <si>
-    <t>w (mm)</t>
-  </si>
-  <si>
-    <t>L0 (mm)</t>
+    <t>D (mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +183,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,11 +537,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -591,13 +605,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111252</xdr:rowOff>
@@ -939,13 +953,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,16 +975,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -982,16 +995,14 @@
         <v>2.4599999999999999E-3</v>
       </c>
       <c r="G2" s="1">
-        <v>3.25</v>
+        <f>3.25*13.15</f>
+        <v>42.737500000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>13.15</v>
-      </c>
-      <c r="I2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.26E-2</v>
       </c>
@@ -1004,8 +1015,9 @@
       <c r="D3">
         <v>5.62E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.8500000000000001E-2</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>8.7799999999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.0900000000000003E-2</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>1.83E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.2299999999999993E-2</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.108</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.124</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.14000000000000001</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.156</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.17199999999999999</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.187</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.20300000000000001</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.218</v>
       </c>
@@ -14979,11 +14991,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010064864F282976314B89D15DAB2B6734B2" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f788bfb9bc47115be98f9b5fa523fbba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e8c7c3d-e260-4705-a286-e09602e139ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59218437b229736cbd1114e2cc8acd40" ns2:_="">
     <xsd:import namespace="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
@@ -15139,29 +15167,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CBD694-DBC4-4613-90F8-B678A9048CF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BA9FCA-4475-4B01-BEDD-64FA76AA1542}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35D5FDA-E68D-4BA8-9933-069691E61822}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35D5FDA-E68D-4BA8-9933-069691E61822}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BA9FCA-4475-4B01-BEDD-64FA76AA1542}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CBD694-DBC4-4613-90F8-B678A9048CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>